--- a/September/Others/Price List Update_11.09.19.xlsx
+++ b/September/Others/Price List Update_11.09.19.xlsx
@@ -349,7 +349,7 @@
     <t>V99</t>
   </si>
   <si>
-    <t>Date:  11.09.19</t>
+    <t>Date:  30.09.19</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2181,7 +2181,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2627,7 +2627,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2698,7 +2698,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2772,7 +2772,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2843,7 +2843,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3160,7 +3160,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4260,7 +4260,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4706,7 +4706,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4777,7 +4777,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4851,7 +4851,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4922,7 +4922,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6554,8 +6554,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6717,10 +6717,16 @@
       <c r="F7" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="G7" s="34">
+        <v>1070</v>
+      </c>
+      <c r="H7" s="34">
+        <v>1160</v>
+      </c>
       <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="35">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="33" t="s">

--- a/September/Others/Price List Update_11.09.19.xlsx
+++ b/September/Others/Price List Update_11.09.19.xlsx
@@ -349,7 +349,7 @@
     <t>V99</t>
   </si>
   <si>
-    <t>Date:  30.09.19</t>
+    <t>Date:  29.09.19</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2181,7 +2181,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2627,7 +2627,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2698,7 +2698,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2772,7 +2772,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2843,7 +2843,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3160,7 +3160,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4260,7 +4260,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4706,7 +4706,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4777,7 +4777,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4851,7 +4851,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4922,7 +4922,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6555,7 +6555,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection sqref="A1:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7663,10 +7663,16 @@
       <c r="F42" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="G42" s="34">
+        <v>3710</v>
+      </c>
+      <c r="H42" s="34">
+        <v>3990</v>
+      </c>
       <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="35">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="36" t="s">
